--- a/Topics/Literatur.xlsx
+++ b/Topics/Literatur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncpd\Dropbox\Uni\Signal Processing\Topics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C372453-CA07-43C6-8AFD-05C633F4D671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7848F35C-CCC4-462E-8A24-19A3A090FD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14520" yWindow="1140" windowWidth="11955" windowHeight="10710" xr2:uid="{03B9D9AD-0C75-48AD-A6D1-164DBD544432}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,9 +526,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -656,7 +659,7 @@
       </c>
       <c r="I16">
         <f>SUM(I3:I14)</f>
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,7 +677,7 @@
       </c>
       <c r="B19">
         <f>I16</f>
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +686,7 @@
       </c>
       <c r="B20">
         <f>B18-B19</f>
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
